--- a/Documentación/Product Backlog.xlsx
+++ b/Documentación/Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\UAE\6SA\PIS\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0684BC17-B66B-45A5-A4E8-FD804AC8CABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE2E796-2ECB-4D8A-BC96-99805F4DC836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="255" windowWidth="14400" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="900" yWindow="255" windowWidth="14400" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Desarrollo ágil: Pila de Producto (Product Backlog)</t>
   </si>
@@ -172,12 +172,15 @@
   <si>
     <t>12 horas</t>
   </si>
+  <si>
+    <t>s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,8 +211,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +244,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -293,44 +318,50 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,46 +704,46 @@
   <dimension ref="B1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="B4:I12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="88.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="1.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="88.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="B3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
@@ -734,196 +765,196 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="13" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="14">
         <v>1</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8">
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="17">
         <v>1</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="19">
         <v>1</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8">
+      <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="10">
         <v>2</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="21">
         <v>1</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+      <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="21">
         <v>1</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+      <c r="B11" s="10">
         <v>7</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="10">
         <v>1</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+      <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="21">
         <v>1</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:I18" xr:uid="{00000000-0001-0000-0000-000000000000}">
@@ -1042,21 +1073,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000F09B40FEF47ED4BA21B26CF489C602F" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="4c318dd82aeb6c969cca909e9681bc04">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="31cb0841-531e-40ec-8ff4-462c30f100d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d280847367d7daaa8badd2438e3988f" ns2:_="">
     <xsd:import namespace="31cb0841-531e-40ec-8ff4-462c30f100d9"/>
@@ -1188,31 +1204,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F982E56-B301-4F13-9CE3-808EBFE86DF1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="31cb0841-531e-40ec-8ff4-462c30f100d9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1BC858E-9431-4ADE-AFA6-EAB85EFBA4FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D8D142E-12DD-4C96-AFC0-DD7C436BA6EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1228,4 +1235,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1BC858E-9431-4ADE-AFA6-EAB85EFBA4FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F982E56-B301-4F13-9CE3-808EBFE86DF1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="31cb0841-531e-40ec-8ff4-462c30f100d9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentación/Product Backlog.xlsx
+++ b/Documentación/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\UAE\6SA\PIS\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE2E796-2ECB-4D8A-BC96-99805F4DC836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BED522A-B110-4EC6-AA64-42900BD0E7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="900" yWindow="255" windowWidth="14400" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-480000" yWindow="-480000" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10">
         <v>2</v>
       </c>
@@ -1073,6 +1073,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000F09B40FEF47ED4BA21B26CF489C602F" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="4c318dd82aeb6c969cca909e9681bc04">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="31cb0841-531e-40ec-8ff4-462c30f100d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d280847367d7daaa8badd2438e3988f" ns2:_="">
     <xsd:import namespace="31cb0841-531e-40ec-8ff4-462c30f100d9"/>
@@ -1204,15 +1213,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1220,6 +1220,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1BC858E-9431-4ADE-AFA6-EAB85EFBA4FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D8D142E-12DD-4C96-AFC0-DD7C436BA6EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1233,14 +1241,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1BC858E-9431-4ADE-AFA6-EAB85EFBA4FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
